--- a/StructureDefinition-emr-lab-patient.xlsx
+++ b/StructureDefinition-emr-lab-patient.xlsx
@@ -359,7 +359,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://openhie.org/fhir/StructureDefinition/emr-lab-openmrs-identifier}
+    <t xml:space="preserve">Identifier {http://openhie.github.io/covid-19/StructureDefinition/emr-lab-openmrs-identifier}
 </t>
   </si>
   <si>
